--- a/калькулятор 5 - блокноты, деколь/калькулятор 3.1 - флаги.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3.1 - флаги.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="бум.пакеты" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="3" r:id="rId3"/>
+    <sheet name="бум.пакеты0" sheetId="1" r:id="rId1"/>
+    <sheet name="бум.пакеты1" sheetId="2" r:id="rId2"/>
+    <sheet name="флаги" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">бум.пакеты!$A$1:$D$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">бум.пакеты0!$A$1:$D$148</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,17 +182,17 @@
     <t>801</t>
   </si>
   <si>
-    <t>допы</t>
-  </si>
-  <si>
-    <t>описание</t>
+    <t>http://sgrafika.ru/prais-list</t>
+  </si>
+  <si>
+    <t>Прайс на пакеты 2019 (1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +206,14 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,10 +260,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -264,8 +273,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -324,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -359,7 +373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -536,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +569,7 @@
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,8 +607,11 @@
         <f>B8</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -633,7 +650,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>200</v>
       </c>
@@ -641,7 +658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>300</v>
       </c>
@@ -649,7 +666,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>400</v>
       </c>
@@ -657,7 +674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>500</v>
       </c>
@@ -665,7 +682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>700</v>
       </c>
@@ -673,7 +690,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -681,7 +698,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -720,7 +737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>200</v>
       </c>
@@ -728,7 +745,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>300</v>
       </c>
@@ -736,7 +753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>400</v>
       </c>
@@ -744,7 +761,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>500</v>
       </c>
@@ -752,7 +769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>700</v>
       </c>
@@ -760,7 +777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1000</v>
       </c>
@@ -768,7 +785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2430,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,8 +2494,8 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" s="6">
+        <v>322</v>
       </c>
       <c r="D2">
         <v>65</v>
@@ -2503,35 +2520,35 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>"delete price where catId="&amp;C2&amp;" and firma="&amp;B2&amp;";"</f>
-        <v>delete price where catId=1 and firma=10;</v>
+        <v>delete price where catId=322 and firma=10;</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B2&amp;","&amp;$C2&amp;","&amp;D$1&amp;","&amp;SUBSTITUTE(TEXT(D2,"0,00"),",",".")&amp;");"</f>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,1,100,65.00);</v>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,322,100,65.00);</v>
       </c>
       <c r="N2" s="1" t="str">
-        <f t="shared" ref="N2:T2" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B2&amp;","&amp;$C2&amp;","&amp;E$1&amp;","&amp;SUBSTITUTE(TEXT(E2,"0,00"),",",".")&amp;");"</f>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,1,200,50.00);</v>
+        <f t="shared" ref="N2:R2" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B2&amp;","&amp;$C2&amp;","&amp;E$1&amp;","&amp;SUBSTITUTE(TEXT(E2,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,322,200,50.00);</v>
       </c>
       <c r="O2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,1,300,40.50);</v>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,322,300,40.50);</v>
       </c>
       <c r="P2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,1,400,37.00);</v>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,322,400,37.00);</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,1,500,35.00);</v>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,322,500,35.00);</v>
       </c>
       <c r="R2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,1,700,33.50);</v>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,322,700,33.50);</v>
       </c>
       <c r="S2" s="1" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B2&amp;","&amp;$C2&amp;","&amp;J$1&amp;","&amp;SUBSTITUTE(TEXT(J2,"0,00"),",",".")&amp;");"</f>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,1,1000,30.50);</v>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,322,1000,30.50);</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2541,6 +2558,9 @@
       <c r="B3">
         <v>10</v>
       </c>
+      <c r="C3" s="6">
+        <v>323</v>
+      </c>
       <c r="D3">
         <v>90</v>
       </c>
@@ -2562,7 +2582,38 @@
       <c r="J3">
         <v>43</v>
       </c>
-      <c r="S3" s="1"/>
+      <c r="L3" s="1" t="str">
+        <f t="shared" ref="L3:L22" si="1">"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=323 and firma=10;</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f t="shared" ref="M3:M22" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$1&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,323,100,90.00);</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f t="shared" ref="N3:N22" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$1&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,323,200,65.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:O22" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;F$1&amp;","&amp;SUBSTITUTE(TEXT(F3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,323,300,56.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" ref="P3:P22" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;G$1&amp;","&amp;SUBSTITUTE(TEXT(G3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,323,400,52.50);</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f t="shared" ref="Q3:Q22" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;H$1&amp;","&amp;SUBSTITUTE(TEXT(H3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,323,500,48.00);</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f t="shared" ref="R3:R22" si="7">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;I$1&amp;","&amp;SUBSTITUTE(TEXT(I3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,323,700,46.00);</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <f t="shared" ref="S3:S22" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;J$1&amp;","&amp;SUBSTITUTE(TEXT(J3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,323,1000,43.00);</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2571,6 +2622,9 @@
       <c r="B4">
         <v>10</v>
       </c>
+      <c r="C4" s="6">
+        <v>324</v>
+      </c>
       <c r="D4">
         <v>80</v>
       </c>
@@ -2592,7 +2646,38 @@
       <c r="J4">
         <v>36</v>
       </c>
-      <c r="S4" s="1"/>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=324 and firma=10;</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,324,100,80.00);</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,324,200,60.00);</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,324,300,50.00);</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,324,400,46.00);</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,324,500,42.00);</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,324,700,39.00);</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,324,1000,36.00);</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2601,6 +2686,9 @@
       <c r="B5">
         <v>10</v>
       </c>
+      <c r="C5" s="6">
+        <v>325</v>
+      </c>
       <c r="D5">
         <v>95</v>
       </c>
@@ -2622,7 +2710,38 @@
       <c r="J5">
         <v>47</v>
       </c>
-      <c r="S5" s="1"/>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=325 and firma=10;</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,325,100,95.00);</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,325,200,70.00);</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,325,300,65.00);</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,325,400,56.00);</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,325,500,53.00);</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,325,700,50.00);</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,325,1000,47.00);</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2631,6 +2750,9 @@
       <c r="B6">
         <v>10</v>
       </c>
+      <c r="C6" s="6">
+        <v>326</v>
+      </c>
       <c r="D6">
         <v>97</v>
       </c>
@@ -2652,7 +2774,38 @@
       <c r="J6">
         <v>50</v>
       </c>
-      <c r="S6" s="1"/>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=326 and firma=10;</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,326,100,97.00);</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,326,200,70.00);</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,326,300,63.00);</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,326,400,60.00);</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,326,500,56.00);</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,326,700,53.00);</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,326,1000,50.00);</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2661,6 +2814,9 @@
       <c r="B7">
         <v>10</v>
       </c>
+      <c r="C7" s="6">
+        <v>327</v>
+      </c>
       <c r="D7">
         <v>160</v>
       </c>
@@ -2681,6 +2837,38 @@
       </c>
       <c r="J7">
         <v>65</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=327 and firma=10;</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,327,100,160.00);</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,327,200,107.50);</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,327,300,91.00);</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,327,400,84.00);</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,327,500,78.00);</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,327,700,75.00);</v>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,327,1000,65.00);</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2690,6 +2878,9 @@
       <c r="B8">
         <v>10</v>
       </c>
+      <c r="C8" s="6">
+        <v>328</v>
+      </c>
       <c r="D8">
         <v>133.5</v>
       </c>
@@ -2710,6 +2901,38 @@
       </c>
       <c r="J8">
         <v>83</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=328 and firma=10;</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,328,100,133.50);</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,328,200,105.00);</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,328,300,97.50);</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,328,400,92.00);</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,328,500,89.00);</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,328,700,86.00);</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,328,1000,83.00);</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2719,6 +2942,9 @@
       <c r="B9">
         <v>10</v>
       </c>
+      <c r="C9" s="6">
+        <v>329</v>
+      </c>
       <c r="D9">
         <v>200</v>
       </c>
@@ -2739,6 +2965,38 @@
       </c>
       <c r="J9">
         <v>109</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=329 and firma=10;</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,329,100,200.00);</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,329,200,147.50);</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,329,300,135.00);</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,329,400,130.00);</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,329,500,120.00);</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,329,700,112.00);</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,329,1000,109.00);</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2748,6 +3006,9 @@
       <c r="B10">
         <v>10</v>
       </c>
+      <c r="C10" s="6">
+        <v>330</v>
+      </c>
       <c r="D10">
         <v>155</v>
       </c>
@@ -2768,6 +3029,38 @@
       </c>
       <c r="J10">
         <v>89.9</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=330 and firma=10;</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,330,100,155.00);</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,330,200,115.50);</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,330,300,105.00);</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,330,400,97.00);</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,330,500,94.00);</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,330,700,92.00);</v>
+      </c>
+      <c r="S10" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,330,1000,89.90);</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2777,6 +3070,9 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" s="6">
+        <v>331</v>
+      </c>
       <c r="D11">
         <v>198</v>
       </c>
@@ -2797,6 +3093,38 @@
       </c>
       <c r="J11">
         <v>103</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=331 and firma=10;</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,331,100,198.00);</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,331,200,145.00);</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,331,300,129.00);</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,331,400,122.00);</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,331,500,117.00);</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,331,700,106.00);</v>
+      </c>
+      <c r="S11" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,331,1000,103.00);</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2806,6 +3134,9 @@
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="C12" s="6">
+        <v>332</v>
+      </c>
       <c r="D12">
         <v>300</v>
       </c>
@@ -2826,6 +3157,38 @@
       </c>
       <c r="J12">
         <v>160</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=332 and firma=10;</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,332,100,300.00);</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,332,200,250.00);</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,332,300,200.00);</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,332,400,185.00);</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,332,500,175.00);</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,332,700,168.00);</v>
+      </c>
+      <c r="S12" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,332,1000,160.00);</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2835,6 +3198,9 @@
       <c r="B13">
         <v>10</v>
       </c>
+      <c r="C13" s="6">
+        <v>333</v>
+      </c>
       <c r="D13">
         <v>50</v>
       </c>
@@ -2855,6 +3221,38 @@
       </c>
       <c r="J13">
         <v>17</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=333 and firma=10;</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,333,100,50.00);</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,333,200,35.00);</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,333,300,30.00);</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,333,400,25.00);</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,333,500,22.00);</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,333,700,20.00);</v>
+      </c>
+      <c r="S13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,333,1000,17.00);</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2864,6 +3262,9 @@
       <c r="B14">
         <v>10</v>
       </c>
+      <c r="C14" s="6">
+        <v>334</v>
+      </c>
       <c r="D14">
         <v>66</v>
       </c>
@@ -2884,6 +3285,38 @@
       </c>
       <c r="J14">
         <v>30</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=334 and firma=10;</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,334,100,66.00);</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,334,200,47.00);</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,334,300,41.00);</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,334,400,38.00);</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,334,500,35.00);</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,334,700,33.00);</v>
+      </c>
+      <c r="S14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,334,1000,30.00);</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2893,6 +3326,9 @@
       <c r="B15">
         <v>10</v>
       </c>
+      <c r="C15" s="6">
+        <v>335</v>
+      </c>
       <c r="D15">
         <v>73</v>
       </c>
@@ -2913,6 +3349,38 @@
       </c>
       <c r="J15">
         <v>28</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=335 and firma=10;</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,335,100,73.00);</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,335,200,50.00);</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,335,300,42.00);</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,335,400,36.00);</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,335,500,33.00);</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,335,700,31.00);</v>
+      </c>
+      <c r="S15" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,335,1000,28.00);</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2922,6 +3390,9 @@
       <c r="B16">
         <v>10</v>
       </c>
+      <c r="C16" s="6">
+        <v>336</v>
+      </c>
       <c r="D16">
         <v>89</v>
       </c>
@@ -2943,14 +3414,49 @@
       <c r="J16">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=336 and firma=10;</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,336,100,89.00);</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,336,200,70.00);</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,336,300,60.00);</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,336,400,56.00);</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,336,500,53.00);</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,336,700,51.00);</v>
+      </c>
+      <c r="S16" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,336,1000,49.00);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
+      <c r="C17" s="6">
+        <v>337</v>
+      </c>
       <c r="D17">
         <v>95</v>
       </c>
@@ -2972,14 +3478,49 @@
       <c r="J17">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=337 and firma=10;</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,337,100,95.00);</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,337,200,68.00);</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,337,300,63.00);</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,337,400,57.00);</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,337,500,53.00);</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,337,700,50.00);</v>
+      </c>
+      <c r="S17" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,337,1000,47.00);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
+      <c r="C18" s="6">
+        <v>338</v>
+      </c>
       <c r="D18">
         <v>166</v>
       </c>
@@ -3001,14 +3542,49 @@
       <c r="J18">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=338 and firma=10;</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,338,100,166.00);</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,338,200,116.00);</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,338,300,101.00);</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,338,400,93.00);</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,338,500,88.00);</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,338,700,78.00);</v>
+      </c>
+      <c r="S18" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,338,1000,75.00);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
+      <c r="C19" s="6">
+        <v>339</v>
+      </c>
       <c r="D19">
         <v>182</v>
       </c>
@@ -3030,14 +3606,49 @@
       <c r="J19">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=339 and firma=10;</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,339,100,182.00);</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,339,200,120.00);</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,339,300,100.50);</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,339,400,91.00);</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,339,500,85.00);</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,339,700,75.00);</v>
+      </c>
+      <c r="S19" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,339,1000,68.50);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
+      <c r="C20" s="6">
+        <v>340</v>
+      </c>
       <c r="D20">
         <v>153</v>
       </c>
@@ -3059,14 +3670,49 @@
       <c r="J20">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=340 and firma=10;</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,340,100,153.00);</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,340,200,115.00);</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,340,300,90.00);</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,340,400,80.00);</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,340,500,75.00);</v>
+      </c>
+      <c r="R20" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,340,700,65.00);</v>
+      </c>
+      <c r="S20" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,340,1000,62.00);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
+      <c r="C21" s="6">
+        <v>341</v>
+      </c>
       <c r="D21">
         <v>178</v>
       </c>
@@ -3088,14 +3734,49 @@
       <c r="J21">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=341 and firma=10;</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,341,100,178.00);</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,341,200,120.00);</v>
+      </c>
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,341,300,98.00);</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,341,400,90.00);</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,341,500,82.00);</v>
+      </c>
+      <c r="R21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,341,700,73.00);</v>
+      </c>
+      <c r="S21" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,341,1000,69.00);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
+      <c r="C22" s="6">
+        <v>342</v>
+      </c>
       <c r="D22">
         <v>220</v>
       </c>
@@ -3117,379 +3798,703 @@
       <c r="J22">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=342 and firma=10;</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,342,100,220.00);</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,342,200,150.00);</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,342,300,130.00);</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,342,400,120.00);</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,342,500,115.00);</v>
+      </c>
+      <c r="R22" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,342,700,108.00);</v>
+      </c>
+      <c r="S22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,342,1000,98.00);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>419</v>
+      </c>
       <c r="B24" s="1" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$A$24&amp;",'"&amp;A2&amp;"');"</f>
-        <v>insert into Category (parentId,tip) values(,'120*150*60 мм., горизонтальный ');</v>
+        <v>insert into Category (parentId,tip) values(419,'120*150*60 мм., горизонтальный ');</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="str">
+        <f t="shared" ref="B25:B45" si="9">"insert into Category (parentId,tip) values("&amp;$A$24&amp;",'"&amp;A3&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(419,'160*250*80 мм, горизонтальный ');</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'230*155*85 мм., вертикальный ');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'320*220*60 мм., горизонтальный ');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'365*250*70 мм., вертикальный ');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'280*350*170 мм., горизонтальный ');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'300*260*80 мм., вертикальный ');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'350*400*100 мм., вертикальный ');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'400*100*90 мм., вертикальный ');</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'420*300*100 мм., горизонтальный ');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'600*450*150 мм., горизонтальный ');</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'90*57*20 вертикальный ');</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'120*160*60 горизонтальный  ');</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'180*120*50 вертикальный ');</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'250*250*70 квадратный ');</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'320*220*80 горизонтальный (с вырубными ручками) ');</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'350*270*93 вертикальный ');</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'300*400*100 вертикальный ');</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'320*320*100 квадратный ');</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'420*270*93 вертикальный ');</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(419,'440*385*150 горизонтальный  (с плетеными ручками) ');</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>70</v>
-      </c>
-      <c r="F2">
-        <v>43</v>
-      </c>
-      <c r="G2">
-        <v>43</v>
-      </c>
-      <c r="H2">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>32</v>
-      </c>
-      <c r="J2">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>19</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <f>"delete price where catId="&amp;C2&amp;" and firma="&amp;B2&amp;";"</f>
-        <v>delete price where catId= and firma=10;</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B2&amp;","&amp;$C2&amp;","&amp;D$1&amp;","&amp;SUBSTITUTE(TEXT(D2,"0,00"),",",".")&amp;");"</f>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,,1,100.00);</v>
-      </c>
-      <c r="O2" s="1" t="str">
-        <f t="shared" ref="O2:V2" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B2&amp;","&amp;$C2&amp;","&amp;E$1&amp;","&amp;SUBSTITUTE(TEXT(E2,"0,00"),",",".")&amp;");"</f>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,,6,70.00);</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,,11,43.00);</v>
-      </c>
-      <c r="Q2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,,31,43.00);</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,,51,37.00);</v>
-      </c>
-      <c r="S2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,,101,32.00);</v>
-      </c>
-      <c r="T2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,,251,24.00);</v>
-      </c>
-      <c r="U2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,,501,19.00);</v>
-      </c>
-      <c r="V2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,,801,Звоните!);</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
+      <c r="C3" s="6">
+        <v>343</v>
+      </c>
       <c r="D3">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>70</v>
       </c>
       <c r="F3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>32</v>
       </c>
       <c r="J3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="M3" s="1" t="str">
+        <f>"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=343 and firma=10;</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,343,1,100.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:V3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,343,6,70.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,343,11,43.00);</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,343,31,43.00);</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,343,51,37.00);</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,343,101,32.00);</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,343,251,24.00);</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,343,501,19.00);</v>
+      </c>
+      <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
+      <c r="C4" s="6">
+        <v>344</v>
+      </c>
       <c r="D4">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H4">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J4">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" ref="M4:M16" si="1">"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
+        <v>delete price where catId=344 and firma=10;</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4:N16" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,344,1,110.00);</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" ref="O4:O16" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,344,6,70.00);</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" ref="P4:P16" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,344,11,54.00);</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" ref="Q4:Q16" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,344,31,54.00);</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" ref="R4:R16" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,344,51,48.00);</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f t="shared" ref="S4:S16" si="7">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;I$2&amp;","&amp;SUBSTITUTE(TEXT(I4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,344,101,32.00);</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f t="shared" ref="T4:T16" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;J$2&amp;","&amp;SUBSTITUTE(TEXT(J4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,344,251,27.00);</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f t="shared" ref="U4:U16" si="9">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;K$2&amp;","&amp;SUBSTITUTE(TEXT(K4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,344,501,21.00);</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
+      <c r="C5" s="6">
+        <v>345</v>
+      </c>
       <c r="D5">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="G5">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I5">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="J5">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=345 and firma=10;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,345,1,130.00);</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,345,6,80.00);</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,345,11,64.00);</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,345,31,64.00);</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,345,51,59.00);</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,345,101,37.00);</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,345,251,32.00);</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,345,501,29.00);</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
+      <c r="C6" s="6">
+        <v>346</v>
+      </c>
       <c r="D6">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E6">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="H6">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="I6">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="J6">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=346 and firma=10;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,346,1,160.00);</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,346,6,100.00);</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,346,11,90.00);</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,346,31,89.00);</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,346,51,75.00);</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,346,101,59.00);</v>
+      </c>
+      <c r="T6" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,346,251,56.00);</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,346,501,51.00);</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
+      <c r="C7" s="6">
+        <v>347</v>
+      </c>
       <c r="D7">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="E7">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="F7">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="G7">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="H7">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="I7">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="J7">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="K7">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=347 and firma=10;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,347,1,180.00);</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,347,6,160.00);</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,347,11,150.00);</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,347,31,150.00);</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,347,51,128.00);</v>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,347,101,112.00);</v>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,347,251,102.00);</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,347,501,86.00);</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
+      <c r="C8" s="6">
+        <v>348</v>
+      </c>
       <c r="D8">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="E8">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F8">
-        <v>448</v>
+        <v>214</v>
       </c>
       <c r="G8">
-        <v>405</v>
+        <v>193</v>
       </c>
       <c r="H8">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="I8">
-        <v>297</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
+        <v>139</v>
+      </c>
+      <c r="J8">
+        <v>134</v>
+      </c>
+      <c r="K8">
+        <v>102</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=348 and firma=10;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,348,1,260.00);</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,348,6,250.00);</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,348,11,214.00);</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,348,31,193.00);</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,348,51,150.00);</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,348,101,139.00);</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,348,251,134.00);</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,348,501,102.00);</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
+      <c r="C9" s="6">
+        <v>349</v>
+      </c>
       <c r="D9">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E9">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F9">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="G9">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="H9">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="I9">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -3500,31 +4505,64 @@
       <c r="L9" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=349 and firma=10;</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,349,1,500.00);</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,349,6,450.00);</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,349,11,448.00);</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,349,31,405.00);</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,349,51,324.00);</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,349,101,297.00);</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
+      <c r="C10" s="6">
+        <v>350</v>
+      </c>
       <c r="D10">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E10">
-        <v>739</v>
+        <v>500</v>
       </c>
       <c r="F10">
-        <v>620</v>
+        <v>482</v>
       </c>
       <c r="G10">
-        <v>540</v>
+        <v>428</v>
       </c>
       <c r="H10">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="I10">
-        <v>450</v>
+        <v>326</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -3535,31 +4573,64 @@
       <c r="L10" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=350 and firma=10;</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,350,1,550.00);</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,350,6,500.00);</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,350,11,482.00);</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,350,31,428.00);</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,350,51,375.00);</v>
+      </c>
+      <c r="S10" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,350,101,326.00);</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" s="6">
+        <v>351</v>
+      </c>
       <c r="D11">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="E11">
-        <v>856</v>
+        <v>739</v>
       </c>
       <c r="F11">
-        <v>749</v>
+        <v>620</v>
       </c>
       <c r="G11">
-        <v>650</v>
+        <v>540</v>
       </c>
       <c r="H11">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I11">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -3570,95 +4641,188 @@
       <c r="L11" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=351 and firma=10;</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,351,1,700.00);</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,351,6,739.00);</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,351,11,620.00);</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,351,31,540.00);</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,351,51,500.00);</v>
+      </c>
+      <c r="S11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,351,101,450.00);</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="C12" s="6">
+        <v>352</v>
+      </c>
       <c r="D12">
-        <v>1350</v>
+        <v>950</v>
       </c>
       <c r="E12">
-        <v>1180</v>
+        <v>856</v>
       </c>
       <c r="F12">
-        <v>1050</v>
+        <v>749</v>
       </c>
       <c r="G12">
-        <v>950</v>
-      </c>
-      <c r="H12" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>550</v>
+      </c>
+      <c r="J12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" t="s">
         <v>34</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=352 and firma=10;</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,352,1,950.00);</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,352,6,856.00);</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,352,11,749.00);</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,352,31,650.00);</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,352,51,600.00);</v>
+      </c>
+      <c r="S12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,352,101,550.00);</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
+      <c r="C13" s="6">
+        <v>353</v>
+      </c>
       <c r="D13">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="E13">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="F13">
-        <v>1020</v>
+        <v>1050</v>
       </c>
       <c r="G13">
-        <v>980</v>
-      </c>
-      <c r="H13" t="s">
+        <v>950</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=353 and firma=10;</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,353,1,1350.00);</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,353,6,1180.00);</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,353,11,1050.00);</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,353,31,950.00);</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
+      <c r="C14" s="6">
+        <v>354</v>
+      </c>
       <c r="D14">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E14">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F14">
-        <v>1450</v>
+        <v>1020</v>
       </c>
       <c r="G14">
-        <v>1380</v>
+        <v>980</v>
       </c>
       <c r="H14" t="s">
         <v>34</v>
@@ -3675,25 +4839,52 @@
       <c r="L14" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=354 and firma=10;</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,354,1,1400.00);</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,354,6,1200.00);</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,354,11,1020.00);</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,354,31,980.00);</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
+      <c r="C15" s="6">
+        <v>355</v>
+      </c>
       <c r="D15">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E15">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="F15">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="G15">
-        <v>1550</v>
+        <v>1380</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -3710,18 +4901,198 @@
       <c r="L15" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=355 and firma=10;</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,355,1,1600.00);</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,355,6,1500.00);</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,355,11,1450.00);</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,355,31,1380.00);</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>356</v>
+      </c>
+      <c r="D16">
+        <v>1800</v>
+      </c>
+      <c r="E16">
+        <v>1700</v>
+      </c>
+      <c r="F16">
+        <v>1650</v>
+      </c>
+      <c r="G16">
+        <v>1550</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=356 and firma=10;</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,356,1,1800.00);</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,356,6,1700.00);</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,356,11,1650.00);</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,356,31,1550.00);</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2">
+        <v>428</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$D$18&amp;",'"&amp;A3&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(428,'10x15');</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="str">
+        <f t="shared" ref="E19:E35" si="10">"insert into Category (parentId,tip) values("&amp;$D$18&amp;",'"&amp;A4&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(428,'12x18');</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'15x22');</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'20x30');</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'30x40');</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'40x60');</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'60х90');</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'70x105');</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'90x135');</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'100x150');</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'120х180');</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'100x200');</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'140x210');</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into Category (parentId,tip) values(428,'150x225');</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/калькулятор 5 - блокноты, деколь/калькулятор 3.1 - флаги.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3.1 - флаги.xlsx
@@ -4,12 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="бум.пакеты0" sheetId="1" r:id="rId1"/>
     <sheet name="бум.пакеты1" sheetId="2" r:id="rId2"/>
     <sheet name="флаги" sheetId="3" r:id="rId3"/>
+    <sheet name="флагПобеды" sheetId="5" r:id="rId4"/>
+    <sheet name="флагНСО" sheetId="6" r:id="rId5"/>
+    <sheet name="Вымпелы" sheetId="7" r:id="rId6"/>
+    <sheet name="Скатерти" sheetId="8" r:id="rId7"/>
+    <sheet name="Шарфы" sheetId="9" r:id="rId8"/>
+    <sheet name="Платки, косынки" sheetId="10" r:id="rId9"/>
+    <sheet name="накидки" sheetId="11" r:id="rId10"/>
+    <sheet name="Спорт.номера" sheetId="12" r:id="rId11"/>
+    <sheet name="ФУТБОЛКИ" sheetId="14" r:id="rId12"/>
+    <sheet name="Лист10" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">бум.пакеты0!$A$1:$D$148</definedName>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="110">
   <si>
     <t xml:space="preserve">Размер </t>
   </si>
@@ -186,13 +196,225 @@
   </si>
   <si>
     <t>Прайс на пакеты 2019 (1)</t>
+  </si>
+  <si>
+    <t>90х135</t>
+  </si>
+  <si>
+    <t>90х135 (произвольный макет)</t>
+  </si>
+  <si>
+    <t>82х188</t>
+  </si>
+  <si>
+    <t>82х188 сшивной двухсторонний без бахромы</t>
+  </si>
+  <si>
+    <t>82х188 сшивной двухсторонний с бахромой</t>
+  </si>
+  <si>
+    <t>Кисти</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10х15</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>15х22</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>20х30</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>30х40, мягкий</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1,5х1,5</t>
+  </si>
+  <si>
+    <t>1,5х3</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>15х130 односторонний</t>
+  </si>
+  <si>
+    <t>15х130 двухсторонний</t>
+  </si>
+  <si>
+    <t>50х50 прямоугольный</t>
+  </si>
+  <si>
+    <t>50х50 треугольный</t>
+  </si>
+  <si>
+    <t>60х60 прямоугольный</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>60х60 треугольный</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>70х70 прямоугольный</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>70х70 треугольный</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>20х30 односторонний 4+0 Без завязок, пришивной или под булавку, край терморез</t>
+  </si>
+  <si>
+    <t>20х20 односторонний 4+0</t>
+  </si>
+  <si>
+    <t>20х20 двухсторонний 4+4</t>
+  </si>
+  <si>
+    <t>30х40 односторонний 4+0</t>
+  </si>
+  <si>
+    <t>30х40 двухсторонний 4+4</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>35х55 двухсторонний (с горловиной) 4+4</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <r>
+      <t>Шелкотрафаретная печать на </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>белых</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF3E30F8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> футболках</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Шелкотрафаретная печать на </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>черных и цветных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF3E30F8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> футболках</t>
+    </r>
+  </si>
+  <si>
+    <t>120,00</t>
+  </si>
+  <si>
+    <t>46,00</t>
+  </si>
+  <si>
+    <t>35,00</t>
+  </si>
+  <si>
+    <t>32,50</t>
+  </si>
+  <si>
+    <t>30,00</t>
+  </si>
+  <si>
+    <t>28,50</t>
+  </si>
+  <si>
+    <t>27,00</t>
+  </si>
+  <si>
+    <t>26,00</t>
+  </si>
+  <si>
+    <t>1 цвет</t>
+  </si>
+  <si>
+    <t>2 цвета</t>
+  </si>
+  <si>
+    <t>3 цвета</t>
+  </si>
+  <si>
+    <t>4 цвета</t>
+  </si>
+  <si>
+    <t>5 цветов</t>
+  </si>
+  <si>
+    <t>доп</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +437,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF3E30F8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,8 +491,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -259,12 +521,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEDEDE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEDEDE"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEDEDE"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEDEDE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -277,6 +554,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2445,6 +2733,1705 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R3" sqref="M3:R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6">
+        <v>435</v>
+      </c>
+      <c r="D3">
+        <v>730</v>
+      </c>
+      <c r="E3" s="6">
+        <v>530</v>
+      </c>
+      <c r="F3">
+        <v>450</v>
+      </c>
+      <c r="G3">
+        <v>370</v>
+      </c>
+      <c r="H3">
+        <v>320</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=435 and firma=10;</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,435,1,730.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:Q3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,435,11,530.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,435,21,450.00);</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,435,51,370.00);</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,435,101,320.00);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>379</v>
+      </c>
+      <c r="D3">
+        <v>130</v>
+      </c>
+      <c r="E3" s="6">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3" s="6">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=379 and firma=10;</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,379,1,130.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:T3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,379,11,100.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,379,21,90.00);</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,379,51,80.00);</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,379,101,60.00);</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>380</v>
+      </c>
+      <c r="D4">
+        <v>170</v>
+      </c>
+      <c r="E4" s="6">
+        <v>110</v>
+      </c>
+      <c r="F4">
+        <v>105</v>
+      </c>
+      <c r="G4" s="6">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" ref="M4:M8" si="1">"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
+        <v>delete price where catId=380 and firma=10;</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4:N8" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,380,1,170.00);</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" ref="O4:O8" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,380,11,110.00);</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" ref="P4:P8" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,380,21,105.00);</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" ref="Q4:Q8" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,380,51,100.00);</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" ref="R4:R8" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,380,101,80.00);</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>381</v>
+      </c>
+      <c r="D5">
+        <v>255</v>
+      </c>
+      <c r="E5" s="6">
+        <v>180</v>
+      </c>
+      <c r="F5">
+        <v>165</v>
+      </c>
+      <c r="G5" s="6">
+        <v>150</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=381 and firma=10;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,381,1,255.00);</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,381,11,180.00);</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,381,21,165.00);</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,381,51,150.00);</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,381,101,120.00);</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>382</v>
+      </c>
+      <c r="D6">
+        <v>260</v>
+      </c>
+      <c r="E6" s="6">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>170</v>
+      </c>
+      <c r="G6" s="6">
+        <v>150</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=382 and firma=10;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,382,1,260.00);</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,382,11,180.00);</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,382,21,170.00);</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,382,51,150.00);</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,382,101,120.00);</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>383</v>
+      </c>
+      <c r="D7">
+        <v>380</v>
+      </c>
+      <c r="E7" s="6">
+        <v>275</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="6">
+        <v>230</v>
+      </c>
+      <c r="H7">
+        <v>180</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=383 and firma=10;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,383,1,380.00);</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,383,11,275.00);</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,383,21,260.00);</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,383,51,230.00);</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,383,101,180.00);</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>384</v>
+      </c>
+      <c r="D8">
+        <v>430</v>
+      </c>
+      <c r="E8" s="6">
+        <v>330</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="6">
+        <v>280</v>
+      </c>
+      <c r="H8">
+        <v>230</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=384 and firma=10;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,384,1,430.00);</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,384,11,330.00);</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,384,21,310.00);</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,384,51,280.00);</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,384,101,230.00);</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>436</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A3&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(436,'20х30 односторонний 4+0 Без завязок, пришивной или под булавку, край терморез');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="str">
+        <f t="shared" ref="G11:G14" si="7">"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A4&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(436,'20х20 односторонний 4+0');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Category (parentId,tip) values(436,'20х20 двухсторонний 4+4');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Category (parentId,tip) values(436,'30х40 односторонний 4+0');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Category (parentId,tip) values(436,'30х40 двухсторонний 4+4');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A8&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(436,'35х55 двухсторонний (с горловиной) 4+4');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2">
+        <v>400</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>387</v>
+      </c>
+      <c r="D3" s="6">
+        <v>60</v>
+      </c>
+      <c r="E3" s="6">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G3" s="6">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6">
+        <v>16.3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>13.75</v>
+      </c>
+      <c r="J3" s="6">
+        <v>12.85</v>
+      </c>
+      <c r="K3" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=387 and firma=10;</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,387,20,60.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:T3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,387,50,30.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,387,100,18.40);</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,387,200,17.00);</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,387,300,16.30);</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,387,400,13.75);</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,387,500,12.85);</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;K$2&amp;","&amp;SUBSTITUTE(TEXT(K3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,387,1000,11.50);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>388</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>20.5</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>18.5</v>
+      </c>
+      <c r="J4">
+        <v>17.8</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" ref="M4:M8" si="1">"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
+        <v>delete price where catId=388 and firma=10;</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4:N8" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,388,20,80.00);</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" ref="O4:O8" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,388,50,36.00);</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" ref="P4:P8" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,388,100,23.00);</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" ref="Q4:Q8" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,388,200,20.50);</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" ref="R4:R8" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,388,300,19.00);</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f t="shared" ref="S4:S8" si="7">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;I$2&amp;","&amp;SUBSTITUTE(TEXT(I4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,388,400,18.50);</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f t="shared" ref="T4:T8" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;J$2&amp;","&amp;SUBSTITUTE(TEXT(J4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,388,500,17.80);</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f t="shared" ref="U4:U8" si="9">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;K$2&amp;","&amp;SUBSTITUTE(TEXT(K4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,388,1000,16.00);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>389</v>
+      </c>
+      <c r="D5" s="6">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6">
+        <v>25.6</v>
+      </c>
+      <c r="I5" s="6">
+        <v>23.7</v>
+      </c>
+      <c r="J5" s="6">
+        <v>22</v>
+      </c>
+      <c r="K5" s="6">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=389 and firma=10;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,389,20,100.00);</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,389,50,40.00);</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,389,100,30.00);</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,389,200,28.00);</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,389,300,25.60);</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,389,400,23.70);</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,389,500,22.00);</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,389,1000,21.00);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>390</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=390 and firma=10;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,390,20,120.00);</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,390,50,46.00);</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,390,100,35.00);</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,390,200,32.50);</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,390,300,30.00);</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,390,400,28.50);</v>
+      </c>
+      <c r="T6" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,390,500,27.00);</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,390,1000,26.00);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>391</v>
+      </c>
+      <c r="D7" s="6">
+        <v>150</v>
+      </c>
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>36.6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J7" s="6">
+        <v>30</v>
+      </c>
+      <c r="K7" s="6">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=391 and firma=10;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,391,20,150.00);</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,391,50,50.00);</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,391,100,43.00);</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,391,200,40.50);</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,391,300,36.60);</v>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,391,400,33.30);</v>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,391,500,30.00);</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,391,1000,29.00);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="9">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>392</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=392 and firma=10;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,392,20,30.00);</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,392,50,13.00);</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,392,100,11.00);</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,392,200,9.00);</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,392,300,8.00);</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,392,400,7.00);</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,392,500,6.00);</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,392,1000,4.00);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11">
+        <v>50</v>
+      </c>
+      <c r="F11" s="11">
+        <v>100</v>
+      </c>
+      <c r="G11" s="11">
+        <v>200</v>
+      </c>
+      <c r="H11" s="11">
+        <v>300</v>
+      </c>
+      <c r="I11" s="11">
+        <v>400</v>
+      </c>
+      <c r="J11" s="11">
+        <v>500</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>393</v>
+      </c>
+      <c r="D12" s="12">
+        <v>80</v>
+      </c>
+      <c r="E12" s="12">
+        <v>50</v>
+      </c>
+      <c r="F12" s="12">
+        <v>35</v>
+      </c>
+      <c r="G12" s="12">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12">
+        <v>31</v>
+      </c>
+      <c r="I12" s="12">
+        <v>26</v>
+      </c>
+      <c r="J12" s="12">
+        <v>25</v>
+      </c>
+      <c r="K12" s="12">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f>"delete price where catId="&amp;C12&amp;" and firma="&amp;B12&amp;";"</f>
+        <v>delete price where catId=393 and firma=10;</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B12&amp;","&amp;$C12&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D12,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,393,20,80.00);</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" ref="O12:O17" si="10">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B12&amp;","&amp;$C12&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E12,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,393,50,50.00);</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" ref="P12:P17" si="11">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B12&amp;","&amp;$C12&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F12,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,393,100,35.00);</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" ref="Q12:Q17" si="12">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B12&amp;","&amp;$C12&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G12,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,393,200,33.00);</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" ref="R12:R17" si="13">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B12&amp;","&amp;$C12&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H12,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,393,300,31.00);</v>
+      </c>
+      <c r="S12" s="1" t="str">
+        <f t="shared" ref="S12:S17" si="14">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B12&amp;","&amp;$C12&amp;","&amp;I$2&amp;","&amp;SUBSTITUTE(TEXT(I12,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,393,400,26.00);</v>
+      </c>
+      <c r="T12" s="1" t="str">
+        <f t="shared" ref="T12:T17" si="15">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B12&amp;","&amp;$C12&amp;","&amp;J$2&amp;","&amp;SUBSTITUTE(TEXT(J12,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,393,500,25.00);</v>
+      </c>
+      <c r="U12" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B12&amp;","&amp;$C12&amp;","&amp;K$2&amp;","&amp;SUBSTITUTE(TEXT(K12,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,393,1000,22.00);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>394</v>
+      </c>
+      <c r="D13" s="12">
+        <v>100</v>
+      </c>
+      <c r="E13" s="12">
+        <v>55</v>
+      </c>
+      <c r="F13" s="12">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12">
+        <v>35</v>
+      </c>
+      <c r="H13" s="12">
+        <v>33</v>
+      </c>
+      <c r="I13" s="12">
+        <v>28</v>
+      </c>
+      <c r="J13" s="12">
+        <v>26.5</v>
+      </c>
+      <c r="K13" s="12">
+        <v>23</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" ref="M13:M17" si="16">"delete price where catId="&amp;C13&amp;" and firma="&amp;B13&amp;";"</f>
+        <v>delete price where catId=394 and firma=10;</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" ref="N13:N17" si="17">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B13&amp;","&amp;$C13&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D13,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,394,20,100.00);</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,394,50,55.00);</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,394,100,45.00);</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,394,200,35.00);</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,394,300,33.00);</v>
+      </c>
+      <c r="S13" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,394,400,28.00);</v>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,394,500,26.50);</v>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f t="shared" ref="U13:U17" si="18">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B13&amp;","&amp;$C13&amp;","&amp;K$2&amp;","&amp;SUBSTITUTE(TEXT(K13,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,394,1000,23.00);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>395</v>
+      </c>
+      <c r="D14" s="12">
+        <v>120</v>
+      </c>
+      <c r="E14" s="12">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12">
+        <v>50</v>
+      </c>
+      <c r="G14" s="12">
+        <v>45</v>
+      </c>
+      <c r="H14" s="12">
+        <v>41</v>
+      </c>
+      <c r="I14" s="12">
+        <v>39</v>
+      </c>
+      <c r="J14" s="12">
+        <v>37</v>
+      </c>
+      <c r="K14" s="12">
+        <v>33</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>delete price where catId=395 and firma=10;</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,395,20,120.00);</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,395,50,60.00);</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,395,100,50.00);</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,395,200,45.00);</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,395,300,41.00);</v>
+      </c>
+      <c r="S14" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,395,400,39.00);</v>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,395,500,37.00);</v>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,395,1000,33.00);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
+        <v>396</v>
+      </c>
+      <c r="D15" s="12">
+        <v>150</v>
+      </c>
+      <c r="E15" s="12">
+        <v>66</v>
+      </c>
+      <c r="F15" s="12">
+        <v>55</v>
+      </c>
+      <c r="G15" s="12">
+        <v>50</v>
+      </c>
+      <c r="H15" s="12">
+        <v>45</v>
+      </c>
+      <c r="I15" s="12">
+        <v>43</v>
+      </c>
+      <c r="J15" s="12">
+        <v>41</v>
+      </c>
+      <c r="K15" s="12">
+        <v>36</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>delete price where catId=396 and firma=10;</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,396,20,150.00);</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,396,50,66.00);</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,396,100,55.00);</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,396,200,50.00);</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,396,300,45.00);</v>
+      </c>
+      <c r="S15" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,396,400,43.00);</v>
+      </c>
+      <c r="T15" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,396,500,41.00);</v>
+      </c>
+      <c r="U15" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,396,1000,36.00);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>397</v>
+      </c>
+      <c r="D16" s="12">
+        <v>180</v>
+      </c>
+      <c r="E16" s="12">
+        <v>71</v>
+      </c>
+      <c r="F16" s="12">
+        <v>64</v>
+      </c>
+      <c r="G16" s="12">
+        <v>58</v>
+      </c>
+      <c r="H16" s="12">
+        <v>52</v>
+      </c>
+      <c r="I16" s="12">
+        <v>49</v>
+      </c>
+      <c r="J16" s="12">
+        <v>43</v>
+      </c>
+      <c r="K16" s="12">
+        <v>40</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>delete price where catId=397 and firma=10;</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,397,20,180.00);</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,397,50,71.00);</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,397,100,64.00);</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,397,200,58.00);</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,397,300,52.00);</v>
+      </c>
+      <c r="S16" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,397,400,49.00);</v>
+      </c>
+      <c r="T16" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,397,500,43.00);</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,397,1000,40.00);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="9">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10">
+        <v>398</v>
+      </c>
+      <c r="D17" s="12">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12">
+        <v>11</v>
+      </c>
+      <c r="G17" s="12">
+        <v>9</v>
+      </c>
+      <c r="H17" s="12">
+        <v>8</v>
+      </c>
+      <c r="I17" s="12">
+        <v>7</v>
+      </c>
+      <c r="J17" s="12">
+        <v>6</v>
+      </c>
+      <c r="K17" s="12">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>delete price where catId=398 and firma=10;</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,398,20,40.00);</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,398,50,13.00);</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,398,100,11.00);</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,398,200,9.00);</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,398,300,8.00);</v>
+      </c>
+      <c r="S17" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,398,400,7.00);</v>
+      </c>
+      <c r="T17" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,398,500,6.00);</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,398,1000,4.00);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F21" s="6">
+        <v>386</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A3&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(386,'1 цвет');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A4&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(386,'2 цвета');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A5&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(386,'3 цвета');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A6&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(386,'4 цвета');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A7&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(386,'5 цветов');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A8&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(386,'доп');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>437</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$A$28&amp;",'"&amp;B28&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(437,'Шелкотрафаретная печать на белых футболках');</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$A$28&amp;",'"&amp;B29&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(437,'Шелкотрафаретная печать на черных и цветных футболках');</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>385</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>386</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S45"/>
@@ -3980,8 +5967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4069,7 +6056,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,343,1,100.00);</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3:V3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="O3:U3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,343,6,70.00);</v>
       </c>
       <c r="P3" s="1" t="str">
@@ -4156,19 +6143,19 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,344,31,54.00);</v>
       </c>
       <c r="R4" s="1" t="str">
-        <f t="shared" ref="R4:R16" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H4,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="R4:R12" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,344,51,48.00);</v>
       </c>
       <c r="S4" s="1" t="str">
-        <f t="shared" ref="S4:S16" si="7">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;I$2&amp;","&amp;SUBSTITUTE(TEXT(I4,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="S4:S12" si="7">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;I$2&amp;","&amp;SUBSTITUTE(TEXT(I4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,344,101,32.00);</v>
       </c>
       <c r="T4" s="1" t="str">
-        <f t="shared" ref="T4:T16" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;J$2&amp;","&amp;SUBSTITUTE(TEXT(J4,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="T4:T8" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;J$2&amp;","&amp;SUBSTITUTE(TEXT(J4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,344,251,27.00);</v>
       </c>
       <c r="U4" s="1" t="str">
-        <f t="shared" ref="U4:U16" si="9">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;K$2&amp;","&amp;SUBSTITUTE(TEXT(K4,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="U4:U8" si="9">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;K$2&amp;","&amp;SUBSTITUTE(TEXT(K4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,344,501,21.00);</v>
       </c>
     </row>
@@ -5095,4 +7082,1632 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6">
+        <v>357</v>
+      </c>
+      <c r="D3">
+        <v>530</v>
+      </c>
+      <c r="E3" s="6">
+        <v>480</v>
+      </c>
+      <c r="F3">
+        <v>420</v>
+      </c>
+      <c r="G3">
+        <v>370</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=357 and firma=10;</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,357,1,530.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:Q3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,357,51,480.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,357,101,420.00);</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,357,251,370.00);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6">
+        <v>358</v>
+      </c>
+      <c r="D4">
+        <v>700</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="M4" s="1" t="str">
+        <f t="shared" ref="M4:M8" si="1">"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
+        <v>delete price where catId=358 and firma=10;</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4:N8" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,358,1,700.00);</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" ref="O4:O8" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,358,51,0.00);</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" ref="P4:P8" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,358,101,0.00);</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" ref="Q4:Q8" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,358,251,0.00);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6">
+        <v>359</v>
+      </c>
+      <c r="D5">
+        <v>1450</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=359 and firma=10;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,359,1,1450.00);</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,359,51,0.00);</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,359,101,0.00);</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,359,251,0.00);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6">
+        <v>360</v>
+      </c>
+      <c r="D6">
+        <v>3200</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=360 and firma=10;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,360,1,3200.00);</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,360,51,0.00);</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,360,101,0.00);</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,360,251,0.00);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6">
+        <v>361</v>
+      </c>
+      <c r="D7">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=361 and firma=10;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,361,1,4000.00);</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,361,51,0.00);</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,361,101,0.00);</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,361,251,0.00);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6">
+        <v>362</v>
+      </c>
+      <c r="D8">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=362 and firma=10;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,362,1,1600.00);</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,362,51,0.00);</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,362,101,0.00);</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,362,251,0.00);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>429</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A3&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(429,'90х135');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A4&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(429,'90х135 (произвольный макет)');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A5&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(429,'82х188');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A6&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(429,'82х188 сшивной двухсторонний без бахромы');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A7&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(429,'82х188 сшивной двухсторонний с бахромой');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A8&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(429,'Кисти');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6">
+        <v>430</v>
+      </c>
+      <c r="D3">
+        <v>700</v>
+      </c>
+      <c r="E3" s="6">
+        <v>550</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+      <c r="G3">
+        <v>440</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=430 and firma=10;</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,430,1,700.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:Q3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,430,31,550.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,430,51,500.00);</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,430,101,440.00);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <v>430</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N3" sqref="M3:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>363</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="6">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>170</v>
+      </c>
+      <c r="G3" s="6">
+        <v>130</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=363 and firma=10;</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,363,1,250.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:Q3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,363,11,200.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,363,21,170.00);</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,363,51,130.00);</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,363,101,100.00);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>364</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="6">
+        <v>220</v>
+      </c>
+      <c r="F4">
+        <v>190</v>
+      </c>
+      <c r="G4" s="6">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" ref="M4:M8" si="1">"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
+        <v>delete price where catId=364 and firma=10;</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4:N8" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,364,1,275.00);</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" ref="O4:O8" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,364,11,220.00);</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" ref="P4:P8" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,364,21,190.00);</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" ref="Q4:Q8" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,364,51,150.00);</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" ref="R4:R8" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,364,101,120.00);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>365</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="6">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>280</v>
+      </c>
+      <c r="G5" s="6">
+        <v>260</v>
+      </c>
+      <c r="H5">
+        <v>220</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=365 and firma=10;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,365,1,350.00);</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,365,11,300.00);</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,365,21,280.00);</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,365,51,260.00);</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,365,101,220.00);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>366</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="6">
+        <v>350</v>
+      </c>
+      <c r="F6">
+        <v>320</v>
+      </c>
+      <c r="G6" s="6">
+        <v>310</v>
+      </c>
+      <c r="H6">
+        <v>270</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=366 and firma=10;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,366,1,400.00);</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,366,11,350.00);</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,366,21,320.00);</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,366,51,310.00);</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,366,101,270.00);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>431</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A3&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(431,'10х15');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A4&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(431,'15х22');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A5&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(431,'20х30');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A6&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(431,'30х40, мягкий');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>367</v>
+      </c>
+      <c r="D3">
+        <v>1570</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1080</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="M3" s="1" t="str">
+        <f>"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=367 and firma=10;</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,367,1,1570.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:P4" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,367,11,1080.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,367,31,1010.00);</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>368</v>
+      </c>
+      <c r="D4">
+        <v>2830</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1940</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="M4" s="1" t="str">
+        <f t="shared" ref="M4" si="1">"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
+        <v>delete price where catId=368 and firma=10;</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,368,1,2830.00);</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,368,11,1940.00);</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,368,31,1810.00);</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>432</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A3&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(432,'1,5х1,5');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A4&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(432,'1,5х3');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>371</v>
+      </c>
+      <c r="D3">
+        <v>210</v>
+      </c>
+      <c r="E3">
+        <v>190</v>
+      </c>
+      <c r="F3">
+        <v>165</v>
+      </c>
+      <c r="G3">
+        <v>140</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=371 and firma=10;</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,371,1,210.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:Q3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,371,11,190.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,371,51,165.00);</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,371,101,140.00);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>372</v>
+      </c>
+      <c r="D4">
+        <v>350</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4">
+        <v>220</v>
+      </c>
+      <c r="G4">
+        <v>190</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f>"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
+        <v>delete price where catId=372 and firma=10;</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,372,1,350.00);</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" ref="O4" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,372,11,250.00);</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" ref="P4" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,372,51,220.00);</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,372,101,190.00);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>433</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A3&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(433,'15х130 односторонний');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A4&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(433,'15х130 двухсторонний');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>373</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3" s="6">
+        <v>160</v>
+      </c>
+      <c r="F3">
+        <v>140</v>
+      </c>
+      <c r="G3">
+        <v>130</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>"delete price where catId="&amp;C3&amp;" and firma="&amp;B3&amp;";"</f>
+        <v>delete price where catId=373 and firma=10;</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,373,1,250.00);</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:Q3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,373,11,160.00);</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,373,51,140.00);</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,373,101,130.00);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>374</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" s="6">
+        <v>130</v>
+      </c>
+      <c r="F4">
+        <v>110</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" ref="M4:M8" si="1">"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
+        <v>delete price where catId=374 and firma=10;</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4:N8" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,374,1,200.00);</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" ref="O4:O8" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,374,11,130.00);</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" ref="P4:P8" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,374,51,110.00);</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" ref="Q4:Q8" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,374,101,100.00);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>375</v>
+      </c>
+      <c r="D5">
+        <v>290</v>
+      </c>
+      <c r="E5" s="6">
+        <v>210</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>160</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=375 and firma=10;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,375,1,290.00);</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,375,11,210.00);</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,375,51,170.00);</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,375,101,160.00);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>376</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" s="6">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="6">
+        <v>110</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=376 and firma=10;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,376,1,200.00);</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,376,11,150.00);</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,376,51,120.00);</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,376,101,110.00);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>377</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="6">
+        <v>260</v>
+      </c>
+      <c r="F7">
+        <v>210</v>
+      </c>
+      <c r="G7" s="6">
+        <v>200</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=377 and firma=10;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,377,1,320.00);</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,377,11,260.00);</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,377,51,210.00);</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,377,101,200.00);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>378</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="6">
+        <v>180</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+      <c r="G8" s="6">
+        <v>140</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>delete price where catId=378 and firma=10;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,378,1,220.00);</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,378,11,180.00);</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,378,51,150.00);</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,378,101,140.00);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>434</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A3&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(434,'50х50 прямоугольный');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="str">
+        <f t="shared" ref="G11:G14" si="6">"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A4&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(434,'50х50 треугольный');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Category (parentId,tip) values(434,'60х60 прямоугольный');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Category (parentId,tip) values(434,'60х60 треугольный');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Category (parentId,tip) values(434,'70х70 прямоугольный');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A8&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(434,'70х70 треугольный');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/калькулятор 5 - блокноты, деколь/калькулятор 3.1 - флаги.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3.1 - флаги.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="бум.пакеты0" sheetId="1" r:id="rId1"/>
@@ -3313,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7089,7 +7089,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N3"/>
+      <selection activeCell="L1" sqref="L1:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7178,21 +7178,12 @@
         <v>delete price where catId=358 and firma=10;</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f t="shared" ref="N4:N8" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,358,1,700.00);</v>
       </c>
-      <c r="O4" s="1" t="str">
-        <f t="shared" ref="O4:O8" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,358,51,0.00);</v>
-      </c>
-      <c r="P4" s="1" t="str">
-        <f t="shared" ref="P4:P8" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F4,"0,00"),",",".")&amp;");"</f>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,358,101,0.00);</v>
-      </c>
-      <c r="Q4" s="1" t="str">
-        <f t="shared" ref="Q4:Q8" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G4,"0,00"),",",".")&amp;");"</f>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,358,251,0.00);</v>
-      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7213,21 +7204,12 @@
         <v>delete price where catId=359 and firma=10;</v>
       </c>
       <c r="N5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N4:N8" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B5&amp;","&amp;$C5&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D5,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,359,1,1450.00);</v>
       </c>
-      <c r="O5" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,359,51,0.00);</v>
-      </c>
-      <c r="P5" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,359,101,0.00);</v>
-      </c>
-      <c r="Q5" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,359,251,0.00);</v>
-      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -7251,18 +7233,9 @@
         <f t="shared" si="2"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,360,1,3200.00);</v>
       </c>
-      <c r="O6" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,360,51,0.00);</v>
-      </c>
-      <c r="P6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,360,101,0.00);</v>
-      </c>
-      <c r="Q6" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,360,251,0.00);</v>
-      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7286,18 +7259,9 @@
         <f t="shared" si="2"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,361,1,4000.00);</v>
       </c>
-      <c r="O7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,361,51,0.00);</v>
-      </c>
-      <c r="P7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,361,101,0.00);</v>
-      </c>
-      <c r="Q7" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,361,251,0.00);</v>
-      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -7321,18 +7285,9 @@
         <f t="shared" si="2"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,362,1,1600.00);</v>
       </c>
-      <c r="O8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,362,51,0.00);</v>
-      </c>
-      <c r="P8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,362,101,0.00);</v>
-      </c>
-      <c r="Q8" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,362,251,0.00);</v>
-      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7418,20 +7373,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -7448,7 +7403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -7479,7 +7434,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,430,1,700.00);</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3:Q3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="O3:S3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,430,31,550.00);</v>
       </c>
       <c r="P3" s="1" t="str">
@@ -7487,48 +7442,50 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,430,51,500.00);</v>
       </c>
       <c r="Q3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,430,101,440.00);</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="2">
         <v>430</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -7559,7 +7516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="M3:N4"/>
     </sheetView>
   </sheetViews>

--- a/калькулятор 5 - блокноты, деколь/калькулятор 3.1 - флаги.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3.1 - флаги.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="бум.пакеты0" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">бум.пакеты0!$A$1:$D$148</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -838,7 +838,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2802,7 +2802,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,435,1,730.00);</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3:Q3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="O3:P3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,435,11,530.00);</v>
       </c>
       <c r="P3" s="1" t="str">
@@ -2949,7 +2949,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,379,1,130.00);</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3:T3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="O3:R3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,379,11,100.00);</v>
       </c>
       <c r="P3" s="1" t="str">
@@ -4321,37 +4321,37 @@
         <v>386</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A3&amp;"');"</f>
+        <f t="shared" ref="G21:G26" si="19">"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A3&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(386,'1 цвет');</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G22" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A4&amp;"');"</f>
+        <f t="shared" si="19"/>
         <v>insert into Category (parentId,tip) values(386,'2 цвета');</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A5&amp;"');"</f>
+        <f t="shared" si="19"/>
         <v>insert into Category (parentId,tip) values(386,'3 цвета');</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A6&amp;"');"</f>
+        <f t="shared" si="19"/>
         <v>insert into Category (parentId,tip) values(386,'4 цвета');</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A7&amp;"');"</f>
+        <f t="shared" si="19"/>
         <v>insert into Category (parentId,tip) values(386,'5 цветов');</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$21&amp;",'"&amp;A8&amp;"');"</f>
+        <f t="shared" si="19"/>
         <v>insert into Category (parentId,tip) values(386,'доп');</v>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="str">
-        <f t="shared" ref="B25:B45" si="9">"insert into Category (parentId,tip) values("&amp;$A$24&amp;",'"&amp;A3&amp;"');"</f>
+        <f t="shared" ref="B25:B44" si="9">"insert into Category (parentId,tip) values("&amp;$A$24&amp;",'"&amp;A3&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(419,'160*250*80 мм, горизонтальный ');</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -6987,7 +6987,7 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="str">
-        <f t="shared" ref="E19:E35" si="10">"insert into Category (parentId,tip) values("&amp;$D$18&amp;",'"&amp;A4&amp;"');"</f>
+        <f t="shared" ref="E19:E31" si="10">"insert into Category (parentId,tip) values("&amp;$D$18&amp;",'"&amp;A4&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(428,'12x18');</v>
       </c>
     </row>
@@ -7088,8 +7088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:W9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7204,7 +7204,7 @@
         <v>delete price where catId=359 and firma=10;</v>
       </c>
       <c r="N5" s="1" t="str">
-        <f t="shared" ref="N4:N8" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B5&amp;","&amp;$C5&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D5,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="N5:N8" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B5&amp;","&amp;$C5&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D5,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,359,1,1450.00);</v>
       </c>
       <c r="O5" s="1"/>
@@ -7295,37 +7295,37 @@
         <v>429</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A3&amp;"');"</f>
+        <f t="shared" ref="G10:G15" si="3">"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A3&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(429,'90х135');</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A4&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>insert into Category (parentId,tip) values(429,'90х135 (произвольный макет)');</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A5&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>insert into Category (parentId,tip) values(429,'82х188');</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A6&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>insert into Category (parentId,tip) values(429,'82х188 сшивной двухсторонний без бахромы');</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A7&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>insert into Category (parentId,tip) values(429,'82х188 сшивной двухсторонний с бахромой');</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="str">
-        <f>"insert into Category (parentId,tip) values("&amp;$F$10&amp;",'"&amp;A8&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>insert into Category (parentId,tip) values(429,'Кисти');</v>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7375,8 +7375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:V4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="M3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7434,7 +7434,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,430,1,700.00);</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3:S3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="O3:P3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,430,31,550.00);</v>
       </c>
       <c r="P3" s="1" t="str">
@@ -7508,7 +7508,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7581,7 +7581,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,363,1,250.00);</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3:Q3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="O3:P3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,363,11,200.00);</v>
       </c>
       <c r="P3" s="1" t="str">
@@ -7623,27 +7623,27 @@
         <v>120</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f t="shared" ref="M4:M8" si="1">"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
+        <f t="shared" ref="M4:M6" si="1">"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
         <v>delete price where catId=364 and firma=10;</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f t="shared" ref="N4:N8" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="N4:N6" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$2&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,364,1,275.00);</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f t="shared" ref="O4:O8" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="O4:O6" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,364,11,220.00);</v>
       </c>
       <c r="P4" s="1" t="str">
-        <f t="shared" ref="P4:P8" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F4,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="P4:P6" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;F$2&amp;","&amp;SUBSTITUTE(TEXT(F4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,364,21,190.00);</v>
       </c>
       <c r="Q4" s="1" t="str">
-        <f t="shared" ref="Q4:Q8" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G4,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="Q4:Q6" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;G$2&amp;","&amp;SUBSTITUTE(TEXT(G4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,364,51,150.00);</v>
       </c>
       <c r="R4" s="1" t="str">
-        <f t="shared" ref="R4:R8" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H4,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="R4:R6" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;H$2&amp;","&amp;SUBSTITUTE(TEXT(H4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,364,101,120.00);</v>
       </c>
     </row>
@@ -8131,7 +8131,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,371,1,210.00);</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3:Q3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="O3:P3" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;$C3&amp;","&amp;E$2&amp;","&amp;SUBSTITUTE(TEXT(E3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,371,11,190.00);</v>
       </c>
       <c r="P3" s="1" t="str">
